--- a/src/main/resources/UserList.xlsx
+++ b/src/main/resources/UserList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BDD_Framework\30 March\10MayNew\29May-Main\20 june\upp-test-automation\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BDD_Framework\30 March\10MayNew\29May-Main\20 june\15Sep\upp-test-automation\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="48">
   <si>
     <t>UserName</t>
   </si>
@@ -28,21 +28,6 @@
   </si>
   <si>
     <t>TSID</t>
-  </si>
-  <si>
-    <t>qauser2</t>
-  </si>
-  <si>
-    <t>qauser1</t>
-  </si>
-  <si>
-    <t>qauser3</t>
-  </si>
-  <si>
-    <t>qauser4</t>
-  </si>
-  <si>
-    <t>qauser5</t>
   </si>
   <si>
     <t>qauser6</t>
@@ -568,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CT51"/>
+  <dimension ref="A1:CT46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -683,10 +668,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1"/>
       <c r="L2" s="1"/>
@@ -723,10 +708,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1"/>
       <c r="L3" s="1"/>
@@ -768,35 +753,6 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="1"/>
-      <c r="AM4" s="1"/>
-      <c r="AN4" s="1"/>
-      <c r="AO4" s="3"/>
-      <c r="AP4" s="1"/>
-      <c r="AQ4" s="2"/>
-      <c r="AR4" s="2"/>
-      <c r="AS4" s="2"/>
-      <c r="AT4" s="2"/>
-      <c r="AU4" s="2"/>
-      <c r="AV4" s="2"/>
-      <c r="AW4" s="2"/>
-      <c r="AX4" s="2"/>
-      <c r="AY4" s="2"/>
-      <c r="AZ4" s="2"/>
-      <c r="BA4" s="2"/>
-      <c r="BB4" s="2"/>
-      <c r="BC4" s="2"/>
-      <c r="BD4" s="2"/>
-      <c r="BE4" s="2"/>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -808,35 +764,6 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="1"/>
-      <c r="AM5" s="1"/>
-      <c r="AN5" s="1"/>
-      <c r="AO5" s="3"/>
-      <c r="AP5" s="1"/>
-      <c r="AQ5" s="2"/>
-      <c r="AR5" s="2"/>
-      <c r="AS5" s="2"/>
-      <c r="AT5" s="2"/>
-      <c r="AU5" s="2"/>
-      <c r="AV5" s="2"/>
-      <c r="AW5" s="2"/>
-      <c r="AX5" s="2"/>
-      <c r="AY5" s="2"/>
-      <c r="AZ5" s="2"/>
-      <c r="BA5" s="2"/>
-      <c r="BB5" s="2"/>
-      <c r="BC5" s="2"/>
-      <c r="BD5" s="2"/>
-      <c r="BE5" s="2"/>
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -848,35 +775,6 @@
       <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="1"/>
-      <c r="AM6" s="1"/>
-      <c r="AN6" s="1"/>
-      <c r="AO6" s="3"/>
-      <c r="AP6" s="1"/>
-      <c r="AQ6" s="2"/>
-      <c r="AR6" s="2"/>
-      <c r="AS6" s="2"/>
-      <c r="AT6" s="2"/>
-      <c r="AU6" s="2"/>
-      <c r="AV6" s="2"/>
-      <c r="AW6" s="2"/>
-      <c r="AX6" s="2"/>
-      <c r="AY6" s="2"/>
-      <c r="AZ6" s="2"/>
-      <c r="BA6" s="2"/>
-      <c r="BB6" s="2"/>
-      <c r="BC6" s="2"/>
-      <c r="BD6" s="2"/>
-      <c r="BE6" s="2"/>
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -888,35 +786,6 @@
       <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="2"/>
-      <c r="AF7" s="1"/>
-      <c r="AM7" s="1"/>
-      <c r="AN7" s="1"/>
-      <c r="AO7" s="3"/>
-      <c r="AP7" s="1"/>
-      <c r="AQ7" s="2"/>
-      <c r="AR7" s="2"/>
-      <c r="AS7" s="2"/>
-      <c r="AT7" s="2"/>
-      <c r="AU7" s="2"/>
-      <c r="AV7" s="2"/>
-      <c r="AW7" s="2"/>
-      <c r="AX7" s="2"/>
-      <c r="AY7" s="2"/>
-      <c r="AZ7" s="2"/>
-      <c r="BA7" s="2"/>
-      <c r="BB7" s="2"/>
-      <c r="BC7" s="2"/>
-      <c r="BD7" s="2"/>
-      <c r="BE7" s="2"/>
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -928,35 +797,6 @@
       <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="1"/>
-      <c r="AM8" s="1"/>
-      <c r="AN8" s="1"/>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="1"/>
-      <c r="AQ8" s="2"/>
-      <c r="AR8" s="2"/>
-      <c r="AS8" s="2"/>
-      <c r="AT8" s="2"/>
-      <c r="AU8" s="2"/>
-      <c r="AV8" s="2"/>
-      <c r="AW8" s="2"/>
-      <c r="AX8" s="2"/>
-      <c r="AY8" s="2"/>
-      <c r="AZ8" s="2"/>
-      <c r="BA8" s="2"/>
-      <c r="BB8" s="2"/>
-      <c r="BC8" s="2"/>
-      <c r="BD8" s="2"/>
-      <c r="BE8" s="2"/>
     </row>
     <row r="9" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -1374,61 +1214,6 @@
       </c>
       <c r="C46" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>52</v>
-      </c>
-      <c r="C51" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
